--- a/Spreadsheets/Traffic Light Delay Simulator.xlsx
+++ b/Spreadsheets/Traffic Light Delay Simulator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="21600" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="21600" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1"/>
@@ -444,6 +444,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -632,22 +633,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>72.2</c:v>
+                  <c:v>32.768000000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.65</c:v>
+                  <c:v>40.960000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1</c:v>
+                  <c:v>20.480000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>5.1200000000000019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.64000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.2000000000000008E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9523,10 +9524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9549,6 +9550,26 @@
       <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9559,8 +9580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9714,7 +9735,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -9723,12 +9744,12 @@
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="4"/>
       <c r="R9" s="6">
         <f>1-Light2RedPercentage</f>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="S9" s="7" t="str">
         <f>" of " &amp;U5&amp;" cars  ="</f>
@@ -9738,7 +9759,7 @@
       <c r="U9" s="16"/>
       <c r="V9" s="8">
         <f>Light2RedPercentage</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="W9" s="9" t="str">
         <f>" of "&amp;U5&amp;" ="</f>
@@ -9746,7 +9767,7 @@
       </c>
       <c r="Z9" s="6">
         <f>1-Light2RedPercentage</f>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA9" s="7" t="str">
         <f>" of " &amp;AA5&amp;" cars ="</f>
@@ -9756,7 +9777,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="8">
         <f>Light2RedPercentage</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AE9" s="9" t="str">
         <f>" of "&amp;AA5&amp;" ="</f>
@@ -9768,7 +9789,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D10" s="4"/>
       <c r="Q10" s="3" t="s">
@@ -9776,7 +9797,7 @@
       </c>
       <c r="R10" s="10">
         <f>R9*U5</f>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>10</v>
@@ -9785,14 +9806,14 @@
       <c r="U10" s="17"/>
       <c r="V10" s="11">
         <f>V9*U5</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="W10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z10" s="10">
         <f>Z9*AA5</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>10</v>
@@ -9801,7 +9822,7 @@
       <c r="AC10" s="17"/>
       <c r="AD10" s="11">
         <f>AD9*AA5</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE10" s="12" t="s">
         <v>10</v>
@@ -9812,7 +9833,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="4"/>
       <c r="R11" s="13">
@@ -9851,67 +9872,67 @@
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O14" s="6">
         <f>1-Light3RedPErcentage</f>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="P14" s="7" t="str">
         <f>" of " &amp;R10&amp;" ="</f>
-        <v xml:space="preserve"> of 76 =</v>
+        <v xml:space="preserve"> of 64 =</v>
       </c>
       <c r="Q14" s="8">
         <f>Light3RedPErcentage</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="R14" s="9" t="str">
         <f>" of "&amp;R10&amp;" ="</f>
-        <v xml:space="preserve"> of 76 =</v>
+        <v xml:space="preserve"> of 64 =</v>
       </c>
       <c r="T14" s="6">
         <f>1-Light3RedPErcentage</f>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="U14" s="7" t="str">
         <f>" of " &amp;V10&amp;" ="</f>
-        <v xml:space="preserve"> of 4 =</v>
+        <v xml:space="preserve"> of 16 =</v>
       </c>
       <c r="V14" s="8">
         <f>Light3RedPErcentage</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="W14" s="9" t="str">
         <f>" of "&amp;V10&amp;" ="</f>
-        <v xml:space="preserve"> of 4 =</v>
+        <v xml:space="preserve"> of 16 =</v>
       </c>
       <c r="Z14" s="6">
         <f>1-Light3RedPErcentage</f>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA14" s="7" t="str">
         <f>" of " &amp;Z10&amp;" ="</f>
-        <v xml:space="preserve"> of 19 =</v>
+        <v xml:space="preserve"> of 16 =</v>
       </c>
       <c r="AB14" s="8">
         <f>Light3RedPErcentage</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AC14" s="9" t="str">
         <f>" of "&amp;Z10&amp;" ="</f>
-        <v xml:space="preserve"> of 19 =</v>
+        <v xml:space="preserve"> of 16 =</v>
       </c>
       <c r="AE14" s="6">
         <f>1-Light3RedPErcentage</f>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AF14" s="7" t="str">
         <f>" of " &amp;AD10&amp;" ="</f>
-        <v xml:space="preserve"> of 1 =</v>
+        <v xml:space="preserve"> of 4 =</v>
       </c>
       <c r="AG14" s="8">
         <f>Light3RedPErcentage</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AH14" s="9" t="str">
         <f>" of "&amp;AD10&amp;" ="</f>
-        <v xml:space="preserve"> of 1 =</v>
+        <v xml:space="preserve"> of 4 =</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -9920,14 +9941,14 @@
       </c>
       <c r="O15" s="27">
         <f>O14*R10</f>
-        <v>72.2</v>
+        <v>51.2</v>
       </c>
       <c r="P15" s="29" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="29">
         <f>Q14*R10</f>
-        <v>3.8000000000000003</v>
+        <v>12.8</v>
       </c>
       <c r="R15" s="28" t="s">
         <v>10</v>
@@ -9935,14 +9956,14 @@
       <c r="S15" s="5"/>
       <c r="T15" s="27">
         <f>T14*V10</f>
-        <v>3.8</v>
+        <v>12.8</v>
       </c>
       <c r="U15" s="29" t="s">
         <v>10</v>
       </c>
       <c r="V15" s="29">
         <f>V14*V10</f>
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="W15" s="28" t="s">
         <v>10</v>
@@ -9951,14 +9972,14 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="27">
         <f>Z14*Z10</f>
-        <v>18.05</v>
+        <v>12.8</v>
       </c>
       <c r="AA15" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AB15" s="29">
         <f>AB14*Z10</f>
-        <v>0.95000000000000007</v>
+        <v>3.2</v>
       </c>
       <c r="AC15" s="28" t="s">
         <v>10</v>
@@ -9966,14 +9987,14 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="27">
         <f>AE14*AD10</f>
-        <v>0.95</v>
+        <v>3.2</v>
       </c>
       <c r="AF15" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AG15" s="29">
         <f>AG14*AD10</f>
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="AH15" s="28" t="s">
         <v>10</v>
@@ -10040,67 +10061,67 @@
     <row r="19" spans="9:40" x14ac:dyDescent="0.25">
       <c r="M19" s="6">
         <f>1-Light4RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N19" s="26">
         <f>Light4RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P19" s="6">
         <f>1-Light4RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q19" s="26">
         <f>Light4RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S19" s="6">
         <f>1-Light4RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="T19" s="26">
         <f>Light4RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V19" s="6">
         <f>1-Light4RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W19" s="26">
         <f>Light4RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z19" s="6">
         <f>1-Light4RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA19" s="26">
         <f>Light4RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AC19" s="6">
         <f>1-Light4RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD19" s="26">
         <f>Light4RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF19" s="6">
         <f>1-Light4RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG19" s="26">
         <f>Light4RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AI19" s="6">
         <f>1-Light4RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AJ19" s="26">
         <f>Light4RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="9:40" x14ac:dyDescent="0.25">
@@ -10109,67 +10130,67 @@
       </c>
       <c r="M20" s="27">
         <f>M19*O15</f>
-        <v>72.2</v>
+        <v>40.960000000000008</v>
       </c>
       <c r="N20" s="28">
         <f>N19*O15</f>
-        <v>0</v>
+        <v>10.240000000000002</v>
       </c>
       <c r="P20" s="27">
         <f>P19*Q15</f>
-        <v>3.8000000000000003</v>
+        <v>10.240000000000002</v>
       </c>
       <c r="Q20" s="28">
         <f>Q19*Q15</f>
-        <v>0</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="S20" s="27">
         <f>S19*T15</f>
-        <v>3.8</v>
+        <v>10.240000000000002</v>
       </c>
       <c r="T20" s="28">
         <f>T19*T15</f>
-        <v>0</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="V20" s="27">
         <f>V19*V15</f>
-        <v>0.2</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="W20" s="28">
         <f>W19*V15</f>
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="Z20" s="27">
         <f>Z19*Z15</f>
-        <v>18.05</v>
+        <v>10.240000000000002</v>
       </c>
       <c r="AA20" s="28">
         <f>AA19*Z15</f>
-        <v>0</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="AC20" s="27">
         <f>AC19*AB15</f>
-        <v>0.95000000000000007</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="AD20" s="28">
         <f>AD19*AB15</f>
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="AF20" s="27">
         <f>AF19*AE15</f>
-        <v>0.95</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="AG20" s="28">
         <f>AG19*AE15</f>
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="AI20" s="27">
         <f>AI19*AG15</f>
-        <v>0.05</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="AJ20" s="28">
         <f>AJ19*AG15</f>
-        <v>0</v>
+        <v>0.16000000000000003</v>
       </c>
     </row>
     <row r="21" spans="9:40" x14ac:dyDescent="0.25">
@@ -10246,261 +10267,261 @@
     <row r="24" spans="9:40" x14ac:dyDescent="0.25">
       <c r="I24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="T24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AC24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AF24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AI24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AJ24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AK24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM24" s="6">
         <f>1-Light5RedPercentage</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN24" s="26">
         <f>Light5RedPercentage</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="9:40" x14ac:dyDescent="0.25">
       <c r="I25" s="27">
         <f>I24*M20</f>
-        <v>72.2</v>
+        <v>32.768000000000008</v>
       </c>
       <c r="J25" s="28">
         <f>J24*M20</f>
-        <v>0</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="K25" s="27">
         <f>K24*N20</f>
-        <v>0</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="L25" s="28">
         <f>L24*N20</f>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="M25" s="27">
         <f>M24*P20</f>
-        <v>3.8000000000000003</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="N25" s="28">
         <f>N24*P20</f>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="O25" s="27">
         <f>O24*Q20</f>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="P25" s="28">
         <f>P24*Q20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="Q25" s="27">
         <f>Q24*S20</f>
-        <v>3.8</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="R25" s="28">
         <f>R24*S20</f>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="S25" s="27">
         <f>S24*T20</f>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="T25" s="28">
         <f>T24*T20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="U25" s="27">
         <f>U24*V20</f>
-        <v>0.2</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="V25" s="28">
         <f>V24*V20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="W25" s="27">
         <f>W24*W20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="X25" s="28">
         <f>X24*W20</f>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="Y25" s="27">
         <f>Y24*Z20</f>
-        <v>18.05</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="Z25" s="28">
         <f>Z24*Z20</f>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="AA25" s="27">
         <f>AA24*AA20</f>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="AB25" s="28">
         <f>AB24*AA20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AC25" s="27">
         <f>AC24*AC20</f>
-        <v>0.95000000000000007</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="AD25" s="28">
         <f>AD24*AC20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AE25" s="27">
         <f>AE24*AD20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AF25" s="28">
         <f>AF24*AD20</f>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="AG25" s="27">
         <f>AG24*AF20</f>
-        <v>0.95</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="AH25" s="28">
         <f>AH24*AF20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AI25" s="27">
         <f>AI24*AG20</f>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AJ25" s="28">
         <f>AJ24*AG20</f>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="AK25" s="27">
         <f>AK24*AI20</f>
-        <v>0.05</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AL25" s="28">
         <f>AL24*AI20</f>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="AM25" s="27">
         <f>AM24*AJ20</f>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="AN25" s="28">
         <f>AN24*AJ20</f>
-        <v>0</v>
+        <v>3.2000000000000008E-2</v>
       </c>
     </row>
     <row r="26" spans="9:40" x14ac:dyDescent="0.25">
@@ -10636,131 +10657,131 @@
     <row r="29" spans="9:40" x14ac:dyDescent="0.25">
       <c r="I29" s="32">
         <f>I25</f>
-        <v>72.2</v>
+        <v>32.768000000000008</v>
       </c>
       <c r="J29" s="32">
         <f t="shared" ref="J29:AN29" si="0">J25</f>
-        <v>0</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="K29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="L29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="M29" s="32">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="N29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="O29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="P29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="Q29" s="32">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="R29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="S29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="T29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="U29" s="32">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="V29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="W29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="X29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="Y29" s="32">
         <f t="shared" si="0"/>
-        <v>18.05</v>
+        <v>8.1920000000000019</v>
       </c>
       <c r="Z29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="AA29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="AB29" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AC29" s="32">
         <f t="shared" si="0"/>
-        <v>0.95000000000000007</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="AD29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AE29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AF29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="AG29" s="33">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>2.0480000000000005</v>
       </c>
       <c r="AH29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AI29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AJ29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="AK29" s="33">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="AL29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="AM29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="AN29" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2000000000000008E-2</v>
       </c>
     </row>
     <row r="30" spans="9:40" x14ac:dyDescent="0.25">
@@ -10907,8 +10928,8 @@
         <v>10</v>
       </c>
       <c r="J34">
-        <f>SUMIF($I$30:$AN$30,I34,$I$29:$AN$29)</f>
-        <v>72.2</v>
+        <f t="shared" ref="J34:J39" si="1">SUMIF($I$30:$AN$30,I34,$I$29:$AN$29)</f>
+        <v>32.768000000000008</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.25">
@@ -10917,8 +10938,8 @@
         <v>12</v>
       </c>
       <c r="J35">
-        <f>SUMIF($I$30:$AN$30,I35,$I$29:$AN$29)</f>
-        <v>25.65</v>
+        <f t="shared" si="1"/>
+        <v>40.960000000000008</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.25">
@@ -10927,8 +10948,8 @@
         <v>14</v>
       </c>
       <c r="J36">
-        <f>SUMIF($I$30:$AN$30,I36,$I$29:$AN$29)</f>
-        <v>2.1</v>
+        <f t="shared" si="1"/>
+        <v>20.480000000000008</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.25">
@@ -10937,8 +10958,8 @@
         <v>16</v>
       </c>
       <c r="J37">
-        <f>SUMIF($I$30:$AN$30,I37,$I$29:$AN$29)</f>
-        <v>0.05</v>
+        <f t="shared" si="1"/>
+        <v>5.1200000000000019</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.25">
@@ -10947,8 +10968,8 @@
         <v>18</v>
       </c>
       <c r="J38">
-        <f>SUMIF($I$30:$AN$30,I38,$I$29:$AN$29)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.25">
@@ -10957,8 +10978,8 @@
         <v>20</v>
       </c>
       <c r="J39">
-        <f>SUMIF($I$30:$AN$30,I39,$I$29:$AN$29)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.2000000000000008E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheets/Traffic Light Delay Simulator.xlsx
+++ b/Spreadsheets/Traffic Light Delay Simulator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="21600" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1035" windowWidth="21600" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -8000,7 +8000,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Generating an Exponential Distribution</a:t>
+            <a:t>1. Generating an Exponential Distribution</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8216,7 +8216,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Generating an Weibull/Rayleigh Distribution</a:t>
+            <a:t>2. Generating an Weibull/Rayleigh Distribution</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8640,6 +8640,473 @@
         <a:xfrm>
           <a:off x="7610475" y="2838450"/>
           <a:ext cx="9734550" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Delete this square to see the solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> and discussion below</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>255059</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83608</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10023587-4168-47E7-8AFD-571C1396BF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="255059" y="5626100"/>
+          <a:ext cx="4125382" cy="924984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>3. Does the order of delays impact the distribution?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Set the inputs values and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+            <a:t> try and get a left-skewed distribution (tail on the left side, peak on the right). Can you do it?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D47B1E-43C4-4C14-B8F4-395ED5E2B143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7873999" y="5461000"/>
+          <a:ext cx="6466417" cy="924984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>No, the final cycle-time is the sum of the delays. Just like 1 + 3 + 5 is identical to 5 + 3 + 1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>In fact, different delays will impact each car or piece of work,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+            <a:t> so its not important the order or what delays, just that there are delays at all. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>307976</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>97368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDA4859-6BBE-49DF-BF64-3F7CAF2E20F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7673976" y="5240868"/>
+          <a:ext cx="6931024" cy="1394883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Delete this square to see the solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> and discussion below</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>269876</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF06FBA-E207-47B9-97A0-712C765FECAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="6773331"/>
+          <a:ext cx="4125382" cy="1132417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>4. Does work time impact distribution shape?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Double the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+            <a:t> base travel time and halve the delay times. what happens to the distribution shape? Make sure you watch the X-Axis values.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513292</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCBB5FA-E8BC-4213-B31B-2EB5F80DFB3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7879292" y="6794498"/>
+          <a:ext cx="6249457" cy="924984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>No, the distribution is based on how the delays combine. The length of work alters</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+            <a:t> the scale of the cycle time, not the shape. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>322793</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>131235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578A3528-BD1E-420E-B0BB-18A6CFF64A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7688793" y="6737352"/>
+          <a:ext cx="6931024" cy="1394883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9526,7 +9993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -9550,6 +10017,21 @@
       <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>0.2</v>
@@ -9581,7 +10063,7 @@
   <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11003,8 +11485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Spreadsheets/Traffic Light Delay Simulator.xlsx
+++ b/Spreadsheets/Traffic Light Delay Simulator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1035" windowWidth="21600" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="21600" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -541,7 +541,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.0\%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9993,7 +9993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -10062,8 +10062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
